--- a/i18n/excel_from_translation/dk.seges.xlsx
+++ b/i18n/excel_from_translation/dk.seges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rskgroup.sharepoint.com/sites/IPMDecisions274/Shared Documents/WP2/Translation files/Release-2022-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="11_2CD989CA5F7AE9AD3596C8205691A1F823EC2519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18382FD-8962-4F93-BCC5-6ACEEE3A6CBD}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="11_2CD989CA5F7AE9AD3596C8205691A1F823EC2519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D390BC-7266-4F6C-AD4F-C909737E5DC5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="617">
   <si>
     <t>KEY</t>
   </si>
@@ -103,6 +103,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>dk.seges.1_1.name</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>Μοντέλα SEGES/AU DSS</t>
   </si>
   <si>
+    <t>OAD SEGES</t>
+  </si>
+  <si>
     <t>si</t>
   </si>
   <si>
@@ -131,9 +137,6 @@
   </si>
   <si>
     <t>lt</t>
-  </si>
-  <si>
-    <t>fr</t>
   </si>
   <si>
     <t>it</t>
@@ -160,12 +163,51 @@
 </t>
   </si>
   <si>
-    <t>SCHADERREGER: Blattfleckenkrankheiten bei Weizen können durch die Septoria-Blattdürre (Zymoseptoria tritici) und die Blatt-und Spelzenbräune  (Parastagonospora nodorum) verursacht werden, die beide durch feuchte Bedingungen begünstigt werden. 
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">SCHADERREGER: Blattfleckenkrankheiten bei Weizen können durch die Septoria-Blattdürre (Zymoseptoria tritici) und die Blatt-und Spelzenbräune  (Parastagonospora nodorum) verursacht werden, die beide durch feuchte Bedingungen begünstigt werden. 
 ENTSCHEIDUNG: Möglicherweise müssen Fungizidbehandlungen zwischen dem Schossen und dem Ährenschieben durchgeführt werden, vor allem um die oberen Blätter zu schützen.  
 MODELL: Es werden  Wetterdaten ab BBCH 31 verwendet. Das Feuchtigkeitsmodell schätzt das Risiko einer Septoria tritici-Infektion bei Winterweizen. Das Risiko eines Befalls wird nach 20 Stunden mit kontinuierlicher Nässe angenommen. Eine ausreichend feuchte Stunde ist definiert als mindestens 0,2 mm Niederschlag in einer Stunde oder mindestens 85 % relative Luftfeuchtigkeit. 
-PARAMETER:  Die Daten der wichtigsten Wachstumsstadien werden als Standardwerte angegeben, die jedoch für Ihren Standort möglicherweise nicht korrekt sind.  Um genaue Risikovorhersagen zu erhalten, müssen Sie auf die Schaltfläche "Parameter bearbeiten" klicken, die geschätzten Daten für BBCH 31 (Ein-Knoten-Stadium), BBCH 32 (Zwei-Knoten-Stadium, Blatt F-2 erscheint), BBCH 33 (Drei-Knoten-Stadium, Blatt F-1 erscheint), BBCH 37/39 (Fahnenblatt spitz/geschoben) und BBCH 75 (Mitte Milchreife) eingeben und dann auf die Schaltfläche "Speichern" klicken.  Diese geschätzten Daten können im Laufe der Saison aktualisiert werden, wenn die Wachstumsstadien erreicht sind. Das Hinzufügen von Informationen über die Fungizid-Spritztermine ist für das Modell unerlässlich. Dies geschieht ebenfalls unter "Parameter bearbeiten".  Wenn Sie auf "Speichern" klicken, bleiben die eingegebenen Spritztermine erhalten.  Nach der Behandlung geht das Modell davon aus, dass der Bestand 10 Tage lang geschützt ist.  
+PARAMETER:  Die Daten der wichtigsten </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Entwicklungsstadien </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">werden als Standardwerte angegeben, die jedoch für Ihren Standort möglicherweise nicht korrekt sind.  Um genaue Risikovorhersagen zu erhalten, müssen Sie auf die Schaltfläche "Parameter bearbeiten" klicken, die geschätzten Daten für BBCH 31 (Ein-Knoten-Stadium), BBCH 32 (Zwei-Knoten-Stadium, Blatt F-2 erscheint), BBCH 33 (Drei-Knoten-Stadium, Blatt F-1 erscheint), BBCH 37/39 (Fahnenblatt spitz/geschoben) und BBCH 75 (Mitte Milchreife) eingeben und dann auf die Schaltfläche "Speichern" klicken.  Diese geschätzten Daten können im Laufe der Saison aktualisiert werden, wenn die </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> erreicht sind. Das Hinzufügen von Informationen über die Fungizid-Spritztermine ist für das Modell unerlässlich. Dies geschieht ebenfalls unter "Parameter bearbeiten".  Wenn Sie auf "Speichern" klicken, bleiben die eingegebenen Spritztermine erhalten.  Nach der Behandlung geht das Modell davon aus, dass der Bestand 10 Tage lang geschützt ist.  
 QUELLE: Von der Aahus Universität und SEGES entwickelt und 2017 in Dänemark veröffentlicht. Getestet in Litauen, Norwegen, Schweden, Finnland und Dänemark in den Jahren 2018 und 2019. 
 ANNAHMEN: Septoria tritici ist im Bestand vorhanden und Perioden mit hoher Luftfeuchtigkeit schaffen ein Risiko für eine schädigende Epidemie.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ŠKODLJIV ORGANIZEM: Pšenična listna pegavost (Zymoseptoria tritici) in rjavenje pšeničnih plev (Parastagonospora nodorum), ki jima ustrezajo vlažne razmere.
@@ -177,13 +219,110 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DE Ziekte: Bladvlekkenziekte bij tarwe kan worden veroorzaakt door Septoria tritici  (Zymoseptoria tritici) en Staganospora nodorum blotch (Parastagonospora nodorum), die beide worden bevorderd door natte omstandigheden. 
+    <r>
+      <t xml:space="preserve">DE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLAAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: Bladvlekkenziekte bij tarwe kan worden veroorzaakt door Septoria tritici  (Zymoseptoria tritici) en Staganospora nodorum blotch (Parastagonospora nodorum), die beide worden bevorderd door natte omstandigheden. 
 DE BESLISSING: Het kan nodig zijn om tussen het uitlopen van de stengel en het uitkomen van de aar een behandeling met fungiciden toe te passen, hoofdzakelijk om de bovenste bladeren te beschermen.  
 HET MODEL: Weersgegevens van GS 31 worden gebruikt. Het vochtigheidsmodel schat het risico van septoria tritici blotch-infecties in wintertarwe. Het risico van aantasting wordt verondersteld na 20 uur met continue nattigheid. Een nat uur wordt gedefinieerd als minimaal 0,2 mm neerslag in een uur of minimaal 85% relatieve vochtigheid. 
-DE PARAMETERS: Data van belangrijke groeistadia worden als standaardwaarden gegeven, maar het is mogelijk dat deze niet correct zijn voor uw locatie.  Voor nauwkeurige risicovoorspellingen is het essentieel om op de knop 'Edit parameters' te klikken, de geschatte data van GS31 (eerste stengelknoop voelbaar), GS32 (tweede knoop; derde bovenste blad komt op), GS33 (derde knoop; tweede bovenste blad komt op), GS37/39 (bovenste vlagblad komt op) en GS75 (korrelinhoud melkachtig) in te voeren en vervolgens op de knop 'Save' te klikken.  Deze geschatte data kunnen gedurende het seizoen worden bijgewerkt naarmate de groeistadia worden bereikt. Het toevoegen van informatie over de data waarop septoria-fungiciden worden gespoten, is essentieel voor het model. Dit gebeurt ook in "Bewerk parameters".  Als u op "Opslaan" klikt, blijven de ingevoerde spuitdata behouden.  Na de bespuiting gaat het model ervan uit dat het gewas 10 dagen beschermd is. 
+DE PARAMETERS: Data van belangrijke groeistadia worden als standaardwaarden gegeven, maar het is mogelijk dat deze niet correct zijn voor uw locatie.  Voor nauwkeurige risicovoorspellingen is het essentieel om op de knop 'Edit parameters' te klikken, de geschatte data van GS31 (eerste stengelknoop voelbaar), GS32 (tweede knoop; derde bovenste blad komt op), GS33 (derde knoop; tweede bovenste blad komt op), GS37/39 (bovenste vlagblad komt op) en GS75 (korrelinhoud melkachtig) in te voeren en vervolgens op de knop 'Save' te klikke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n. D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>eze geschatte data kunnen gedurende het seizoen worden bijgewerkt naarmate de groeistadia worden bereikt. Het toevoegen van informatie over de data waarop septoria-fungiciden worden gespoten, is essentieel voor het model. Dit gebeurt ook in "Bewerk parameters".  Als u op "Opslaan" klikt, blijven de ingevoerde spuitdata behoude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n. N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a de bespuiting gaat het model ervan uit dat het gewas 10 dagen beschermd is. 
 BRON: Gemaakt door Aahus University en SEGES en uitgebracht in Denemarken in 2017. Getest in Litouwen, Noorwegen, Zweden, Finland en Denemarken in 2018 en 2019. 
-ASSUMPTIES: septoria tritici blotch is aanwezig en perioden met een hoge luchtvochtigheid creëren risico voor een schadelijke epidemie
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AANNAMES: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">septoria tritici blotch is aanwezig </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>in het gewas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> en perioden met een hoge luchtvochtigheid creëren risico voor een schadelijke epidemie
+</t>
+    </r>
   </si>
   <si>
     <t>SKADEVOLDER: Bladpletsygdomme i hvede kan være forårsaget af septoria tritici blotch (Zymoseptoria tritici) og staganospora nodorum blotch (Parastagonospora nodorum), som begge er begunstiget af våde forhold. 
@@ -196,7 +335,7 @@
   <si>
     <t>SKADEGÖRAREN: Bladfläcksjukdomar hos vete kan orsakas av svartpricksjuka (Zymoseptoria tritici) och brunfläcksjuka (Parastagonospora nodorum), som båda gynnas av våta förhållanden.
 BESLUTET: Fungicidbehandlingar kan behöva göras mellan stråskjutning och axgång, främst för att skydda de övre bladen.
-MODELLEN: Väderdata från GS 31 änvänds. Fuktmodellen uppskattar risken för svartpricksjuka i höstvete. Risk för angrepp antas finnas efter 20 timmar med kontinuerligt hög fuktighet. En våt timme definieras som minst 0,2 mm nederbörd under en timme eller minst 85 % relativ luftfuktighet.
+MODELLEN: Väderdata från GS 31 änvänds. Modellen beräknar risken för angrepp av svartpricksjuka i höstvete. Risk för angrepp antas finnas efter 20 timmar med kontinuerligt hög fuktighet. En våt timme definieras som minst 0,2 mm nederbörd under en timme eller minst 85 % relativ luftfuktighet.
 PARAMETRARNA: Datum för viktiga utvecklingsstadier ges som default-värden, men dessa kan andras för att passa din region. För att få korrekta riskvärden är det mycket viktigt att klicka på knappen "Redigera parametrar", lägga in uppskattade datum för GS 31 (första noden&gt;2 cm) GS 32 (andra noden&gt;2 cm), GS37/39 (flaggbladet just synligt) och GS 75 (mjölkmognad). och sedan klicka "Spara". Dessa uppskattade datum kan korrigeras under säsongen allteftersom de olika utvecklingsstadierna nås. Det är också mycket viktigt för modellen att lägga in datum för fungicidbehandlingar mot svartpricksjuka. detta görs också under "Redigera parametrar". Att klicka på "Spara" kommer att behålla de behandlingsdatum som läggs in. Efter fungicidbehandling förutsätter modellen att grödan är skyddad i 10 dagar.
 KÄLLA: Skapad av Aahus Universitet och SEGES och släpptes i Danmark 2017. Testad i Litauen, Norge, Sverige, Finland och Danmark under 2018 och 2019.
 ANTAGANDEN: Zymoseptoria tritici är närvarande och perioder med hög luftfuktighet skapar risk för allvarliga angrepp.</t>
@@ -545,7 +684,28 @@
     <t>Število ur, ki jih je treba upoštevati pred trenutno uro</t>
   </si>
   <si>
-    <t>Aantal uren te beschouwen vóór huidig uur</t>
+    <r>
+      <t xml:space="preserve">Aantal uren te beschouwen vóór </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>het huidige</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> uur</t>
+    </r>
   </si>
   <si>
     <t>Antal timer, du skal overveje før den aktuelle time</t>
@@ -872,7 +1032,7 @@
     <t>Septoria Fugtighed Model</t>
   </si>
   <si>
-    <t>Zymoseptoria fuktighetsmodell</t>
+    <t>Fuktighetsmodell för svartpricksjuka i vete</t>
   </si>
   <si>
     <t>Μοντέλο υγρασίας σεπτόριας</t>
@@ -938,9 +1098,6 @@
     <t>Septoria fugtighedsmodel i hvede</t>
   </si>
   <si>
-    <t>Zymoseptoria fuktighetsmodell i vete</t>
-  </si>
-  <si>
     <t>Μοντέλο υγρασίας σεπτόριας στο σιτάρι</t>
   </si>
   <si>
@@ -992,6 +1149,9 @@
     <t>Trenutna ura je mokra ura? 1 = da, 0 = ne</t>
   </si>
   <si>
+    <t>Är aktuell timme fuktig? 1 = sant, 0 = falskt</t>
+  </si>
+  <si>
     <t>Nåværende time er fuktig time? 1 = sandt, 0 = usant</t>
   </si>
   <si>
@@ -1013,7 +1173,7 @@
     <t>Fugtig timesum til glidende midte</t>
   </si>
   <si>
-    <t>Fuktig timsumma för glidande mitt</t>
+    <t>Summa fuktiga timmar för glidande mitt</t>
   </si>
   <si>
     <t>Άθροισμα υγρής ώρας για συρόμενη μέση</t>
@@ -1049,7 +1209,7 @@
     <t>Fugtig periode time (på hinanden følgende fugtige timer)</t>
   </si>
   <si>
-    <t>Fuktig period timme (på varandra följande fuktiga timmar)</t>
+    <t>Fuktig period, timmar (på varandra följande fuktiga timmar)</t>
   </si>
   <si>
     <t>Ώρα υγρής περιόδου (διαδοχικές υγρές ώρες)</t>
@@ -1085,7 +1245,7 @@
     <t>Fugtig periodetime (på hinanden følgende fugtige timer) korrigeret for beskyttelsesperiode</t>
   </si>
   <si>
-    <t>Antal sammnhängande fuktiga timmar anpassade till fungicidbehandlingars skyddsperiod</t>
+    <t>Antal sammanhängande fuktiga timmar anpassade till fungicidbehandlingars skyddsperiod</t>
   </si>
   <si>
     <t>Αριθμός διαδοχικών υγρών ωρών, διορθωμένος για την περίοδο προστασίας με μυκητοκτόνα</t>
@@ -1115,7 +1275,7 @@
     <t>Vochtig-periode-uur (opeenvolgende vochtige uren) gecorrigeerd voor beschermingsperiode</t>
   </si>
   <si>
-    <t>Fuktig periodtimme (på varandra följande fuktiga timmar) korrigerad för skyddsperiod</t>
+    <t>Fuktig period, timmar (på varandra följande fuktiga timmar) korrigerad för skyddsperiod</t>
   </si>
   <si>
     <t>Ώρα υγρής περιόδου (διαδοχικές υγρές ώρες) διορθωμένη για την περίοδο προστασίας</t>
@@ -1241,7 +1401,28 @@
     <t>Brez opozorila/izven sezone</t>
   </si>
   <si>
-    <t>Geen waarschuwing/ buiten het seizoen</t>
+    <r>
+      <t>Geen waarschuwi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ng / b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>uiten het seizoen</t>
+    </r>
   </si>
   <si>
     <t>Ingen advarsel/uden for sæsonen</t>
@@ -1358,7 +1539,30 @@
     <t xml:space="preserve">Based on weather data and current estimates of crop growth stages and septoria spray dates, the risk of septoria is low. Go to 'Edit parameters' to check and update growth stages and spray dates. This model runs March-June.  </t>
   </si>
   <si>
-    <t>Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der Wachstumsstadien der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko gering. Gehen Sie zu "Parameter bearbeiten", um Wachstumsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko gering. Gehen Sie zu "Parameter bearbeiten", um Entwicklungsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Glede na vremenske podatke in trenutne ocene razvojnih faz pridelka ter datume škropljenja proti septoriji je tveganje za razvoj bolezni majhno. V razdelku "Parametri" preverite in posodobite datume razvojnih faz in datume škropljenja. Ta model deluje od marca do junija.  </t>
@@ -1391,7 +1595,30 @@
     <t>Continue to check for risk updates and monitor crops. Update crop growth stage and date of fungicide applications through the season</t>
   </si>
   <si>
-    <t>Prüfen Sie weiterhin, ob die Risiken aktualisiert wurden, und überwachen Sie die Kulturen. Aktualisieren Sie das Entwicklungsstadium der Pflanzen und das Datum der Fungizidanwendungen während der Saison</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Prüfen Sie weiterhin, ob die Risiken aktualisiert wurden, und überwachen Sie die Kulturen. Aktualisieren Sie das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Entwicklungsstadium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>der Pflanzen und das Datum der Fungizidanwendungen während der Saison</t>
+    </r>
   </si>
   <si>
     <t>Še naprej preverjajte posodobitve tveganj in spremljajte posevke. Posodabljajte stopnjo rasti pridelka in datum uporabe fungicidov v sezoni.</t>
@@ -1424,7 +1651,30 @@
     <t xml:space="preserve">Based on weather data and current estimates of crop growth stages and septoria spray dates, the risk of septoria is moderate. Go to 'Edit parameters' to check and update growth stages and spray dates. This model runs March-June. </t>
   </si>
   <si>
-    <t>Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der Wachstumsstadien der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko moderat. Gehen Sie zu "Parameter bearbeiten", um Wachstumsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko moderat. Gehen Sie zu "Parameter bearbeiten", um Entwicklungsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Glede na vremenske podatke in trenutne ocene razvojnih faz pridelka ter datume škropljenja proti septoriji je tveganje za razvoj bolezni zmerno. V razdelku "Parametri modela" preverite in posodobite datume razvojnih faz in datume škropljenja. Ta model deluje od marca do junija.  </t>
@@ -1457,14 +1707,58 @@
     <t xml:space="preserve">If the threshold of 20 hours humidity is not exceeded, but other diseases are assessed to also cause a risk and the crop has not been treated in the last ten days, choose an effective fungicide which also controls septoria. Continue to check for risk updates and monitor crops. Update crop growth stage and date of fungicide applications through the season </t>
   </si>
   <si>
-    <t>Wenn der Schwellenwert von 20 Stunden Luftfeuchtigkeit nicht überschritten wird, aber andere Krankheiten ebenfalls ein Risiko darstellen und die Kultur in den letzten zehn Tagen nicht behandelt wurde, wählen Sie ein wirksames Fungizid, das auch Septoria bekämpft. Prüfen Sie weiterhin, ob das Risiko aktualisiert wurde, und überwachen Sie die Bestände. Aktualisieren Sie das Wachstumsstadium der Pflanzen und das Datum der Fungizidanwendungen während der Saison.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Wenn der Schwellenwert von 20 Stunden Luftfeuchtigkeit nicht überschritten wird, aber andere Krankheiten ebenfalls ein Risiko darstellen und die Kultur in den letzten zehn Tagen nicht behandelt wurde, wählen Sie ein wirksames Fungizid, das auch Septoria bekämpft. Prüfen Sie weiterhin, ob das Risiko aktualisiert wurde, und überwachen Sie die Bestände. Aktualisieren Sie das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> der Pflanzen und das Datum der Fungizidanwendungen während der Saison.</t>
+    </r>
   </si>
   <si>
     <t>Če prag 20-urne vlažnosti ni presežen, vendar so ocenjene druge bolezni, ki prav tako povzročajo tveganje, in posevek ni bil tretiran v zadnjih desetih dneh, izberite učinkovit fungicid, ki je učinkovit tudi proti pšenični listni pegavosti.  Še naprej preverjajte posodobitve tveganja in spremljajte posevke. V rastni dobi posodabljajte fenofazo pridelka in datum uporabe fungicidov.</t>
   </si>
   <si>
-    <t xml:space="preserve">Als de drempel van 20 uur luchtvochtigheid niet wordt overschreden, maar andere ziekten ook een risico opleveren en het gewas de afgelopen tien dagen niet is behandeld, kies dan een effectief fungicide dat ook de bestrijding van septoria dekt.
-Blijf controleren op risico-updates en volg de gewassen. Het groeistadium van de gewassen en de datum van fungicidenapplicaties gedurende het seizoen bijwerken. </t>
+    <r>
+      <t>Als de drempel van 20 uur luchtvochtigheid niet wordt overschreden, maar andere ziekten ook een risico opleveren en het gewas de afgelopen tien dagen niet is behandeld, kies dan een effectief fungicide dat ook de bestrijding van septoria dekt.
+Blijf controleren op risico-updates en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de gewassen. Het groeistadium van de gewassen en de datum van fungicidenapplicaties gedurende het seizoen bijwerken. </t>
+    </r>
   </si>
   <si>
     <t>Hvis tærsklen på 20 timers luftfugtighed ikke overskrides, men andre sygdomme vurderes også at medføre en risiko, og afgrøden ikke er blevet behandlet inden for de sidste ti dage, skal du vælge et effektivt fungicid, der også dækker bekæmpelse af septoria. Denne model kører marts-juni. Fortsæt med at kontrollere, om der er risikoopdateringer, og overvåg afgrøder. Opdater afgrødevækststadiet og datoen for fungicidapplikationer gennem sæsonen</t>
@@ -1491,7 +1785,30 @@
     <t xml:space="preserve">Based on weather data and current estimates of crop growth stages and septoria spray dates, the risk of septoria is high. Go to 'Edit parameters' to check and update growth stages and spray dates. This model runs March-June. </t>
   </si>
   <si>
-    <t>Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der Wachstumsstadien der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko hoch. Gehen Sie zu "Parameter bearbeiten", um Wachstumsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Auf der Grundlage von Wetterdaten und aktuellen Schätzungen der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Entwicklungsstadien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> der Pflanzen und der Septoria-Behandlungstermine ist das Septoria-Risiko hoch. Gehen Sie zu "Parameter bearbeiten", um Entwicklungsstadien und Behandlungstermine zu überprüfen und zu aktualisieren. Dieses Modell läuft von März bis Juni.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Glede na vremenske podatke in trenutne ocene razvojnih faz pridelka ter datume škropljenja proti septoriji je tveganje za razvoj bolezni veliko. V razdelku "Parametri modela" preverite in posodobite datume razvojnih faz in datume škropljenja. Ta model deluje od marca do junija.  </t>
@@ -1524,7 +1841,30 @@
     <t xml:space="preserve">If the crop has not been treated against septoria in the last ten days, treat according to need. Choice of fungicides depends on the general disease risk. Apart from effectiveness on septoria the product should also account for other diseases. Continue to check for risk updates and monitor crops. Update crop growth stage and date of fungicide applications through the season  </t>
   </si>
   <si>
-    <t>Wurde der Bestand in den letzten zehn Tagen nicht gegen Septoria behandelt, ist eine Behandlung je nach Bedarf durchzuführen. Die Wahl der Fungizide richtet sich nach dem allgemeinen Krankheitsrisiko. Neben der Wirksamkeit gegen Septoria sollte das Produkt auch für andere Krankheiten geeignet sein. Prüfen Sie weiterhin, ob das Risiko aktualisiert wurde, und überwachen Sie die Bestände. Aktualisieren Sie das Wachstumsstadium der Pflanzen und das Datum der Fungizidanwendungen während der Saison.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Wurde der Bestand in den letzten zehn Tagen nicht gegen Septoria behandelt, ist eine Behandlung je nach Bedarf durchzuführen. Die Wahl der Fungizide richtet sich nach dem allgemeinen Krankheitsrisiko. Neben der Wirksamkeit gegen Septoria sollte das Produkt auch für andere Krankheiten geeignet sein. Prüfen Sie weiterhin, ob das Risiko aktualisiert wurde, und überwachen Sie die Bestände. Aktualisieren Sie das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> der Pflanzen und das Datum der Fungizidanwendungen während der Saison.</t>
+    </r>
   </si>
   <si>
     <t>Če posevek v zadnjih desetih dneh ni bil tretiran proti pšenični listni pegavosti, tretirajte po potrebi. Izbira fungicidov je odvisna od splošne nevarnosti bolezni. Poleg učinkovitosti proti pšenični listni pegavosti mora pripravek upoštevati tudi morebitno tveganje zaradi drugih bolezni.  Še naprej preverjajte posodobitve tveganja in spremljajte posevke. V sezoni posodabljajte fenofaze posevka in datum uporabe fungicidov.</t>
@@ -1563,7 +1903,18 @@
     <t>Ocenjuje tveganje za pojav škode zaradi pšenične listne pegavosti</t>
   </si>
   <si>
-    <t>Schat het risico op septoria</t>
+    <r>
+      <t>Schat het risico op septoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
   </si>
   <si>
     <t>Estimerer risikoen for septoria</t>
@@ -1618,13 +1969,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Das System wurde von der Universität Aarhus und SEGES entwickelt und deckt die wichtigsten Krankheiten und Schädlinge im Getreide ab.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Das System wurde von der Universität Aarhus und SEGES entwickelt und deckt die wichtigsten Krankheiten und Schädlinge im Getreide ab.
 Die Modelle wurden für die Beratung in Bezug auf Blatt- und Stengelkrankheiten bei Getreide entwickelt, darunter Winterweizen, Sommergerste, Wintergerste, Sommerhafer, Wintertriticale und Winterroggen.
 Das System umfasst auch Modelle für die Schädlingsbekämpfung in Getreide.
 Die Modelle erfordern Informationen aus der Schlagbeobachtung, typischerweise im Zeitraum von BBCH 30-31 bis BBCH 65-71
 (Bewertung der Häufigkeit der befallenen Pflanzen) und für einige Krankheiten werden auch Niederschläge benötigt
 (Tage mit mehr als 1 mm Regen). Bevor man Informationen über die Notwendigkeit von Behandlungen erhält, sind Informationen über die Anfälligkeit der Kultur,
-Anfälligkeit der Sorten und Wachstumsstadium (BBCH) erforderlich.
+Anfälligkeit der Sorten und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Entwicklungsstadium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (BBCH) erforderlich.
 Die Landwirte müssen die Kulturen in wöchentlichen Abständen kontrollieren oder zumindest das Risiko anhand der Niederschläge
 oder regionale Überwachungsdaten zur Risikobewertung verfolgen. Im dänischen System werden Fungizide und Dosierungsraten
 empfohlen. Im IPM-Entscheidungssystem wird lediglich eine Empfehlung zur Behandlung oder Nichtbehandlung gegeben.
@@ -1645,6 +2018,7 @@
 6. Jørgensen, LN; Matzen, M, Nielsen, GC, Jalli, M; Ronis; Djule, A; Anderson, B; Ficke, A., Djule, A (2020) Validation of risk models for control of leaf blotch diseases in wheat in the Nordic and Baltic countries European Journal of Plante Pathology,. https://doi.org/10.1007/si 0658-020-02025-6
 7. Jørgensen, LN; Matzen, N, Heick, T M, Madsen, HP; Kristjansen, H S; Kirkegaard, S; Almskou-Dahlgaard, A; Kristoffersen, R (2020). Control strategies in different cultivars. Applied Crop Protection 2019.DCA rapport, 167, 58-71. https://dcapub.au.dk/djfpublikation/index.asp?action=show&amp;id=1325
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Sistem sta razvila univerza Aarhus in SEGES in zajema najpomembnejše bolezni in škodljivce v žitnih. Modeli so bili razviti za usmerjanje, povezano z boleznimi listov in stebel žit, vključno z ozimno pšenico, jarim ječmenom, ozimnim ječmenom, jarim ovsom, ozimno tritikalo in ozimno ržjo. Sistem vključuje tudi modele za obvladovanje škodljivcev v žitih. Modeli potrebujejo podatke iz pridelovalne površine (ocena pogostosti napadenih rastlin), običajno v obdobju od razvojne faze BBCH 30-31 do BBCH 65-71., za nekatere bolezni pa so potrebne tudi padavine (dnevi z več kot 1 mm dežja). Pred pridobitvijo informacij o potrebi po tretiranju sistem potrebuje informacije o pridelku, občutljivosti kultivarjev in razvojni fazi (BBCH). Pridelovalci morajo pridelke pregledovati v tedenskih intervalih ali vsaj upoštevati tveganje na podlagi padavin ali regionalnih podatkov o spremljanju za oceno tveganja. V danskem sistemu so fungicidi in odmerki priporočeni. V sistemu IPM decisions je podano le priporočilo za tretiranje ali netretiranje.
@@ -1667,29 +2041,157 @@
 </t>
   </si>
   <si>
-    <t>Het systeem is ontwikkeld door de Universiteit van Aarhus en SEGES en bestrijkt de belangrijkste ziekten en plagen in graangewassen.
-De modellen zijn ontwikkeld voor begeleiding met betrekking tot blad- en stengelziekten in granen, waaronder
-wintertarwe, zomergerst, wintergerst, zomerhaver, wintertriticale en winterrogge.
-Het systeem bevat ook modellen voor de bestrijding van plagen in granen.
-De modellen vereisen informatie uit veldregistratie, doorgaans in de periode van GS 30-31 tot GS 65-71
-(beoordelingen van de frequentie van aangetaste planten) en voor sommige ziekten is ook neerslag nodig
-(dagen met meer dan 1 mm regen). Alvorens informatie te verkrijgen over de noodzaak van behandelingen - informatie over gewas cultivars, gevoeligheid en groeistadium (BBCH) is vereist. De telers moeten de gewassen wekelijks controleren of minimaal het risico volgen op basis van neerslag
-of regionale monitoringgegevens voor risico-evaluatie. In het Deense systeem worden fungiciden en doses
-aanbevolen. In het IPM-beslissingssysteem wordt alleen aanbevolen al dan niet te behandelen.
+    <r>
+      <t>Het systeem is ontwikkeld door de Universiteit van Aarhus en SEGES en bestrijkt de belangrijkste ziekten en plagen in graangewassen. De modellen zijn ontwikkeld voor begeleiding met betrekking tot blad- en stengelziekten in granen, waaronder
+wintertarwe, zomergerst, wintergerst, zomerhaver, wintertriticale en winterrogge. Het systeem bevat ook modellen voor de bestrijding van plagen in granen.
+De modellen vereisen informatie uit veldregistratie, doorgaans in de periode van GS 30-31 tot GS 65-71 (beoordelingen van de frequentie van aangetaste planten) en voor sommige ziekten is ook neerslag nodig (dagen met meer dan 1 mm regen). Alvorens informatie te verkrijgen over de noodzaak van behandelinge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n is i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nformatie over gewas cultivars, gevoeligheid en groeistadium (BBCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ereist. De telers moeten de gewassen wekelijks controleren of minimaal het risico volgen op basis van neerslag of regionale monitoringgegevens voor risico-evaluatie. In het Deense systeem worden fungiciden en doses aanbevolen. In het IPM-beslissingssysteem wordt alleen aanbevolen al dan niet te behandelen.
 De modellen zijn gevalideerd in Denemarken en zijn ook getest in de Baltische en Scandinavische landen.  Verwacht wordt dat het DSS in het noordelijke deel van Europa geldig zal zijn, aangenomen dat het monitoringgedeelte van het systeem wordt gevolgd.
 BRON: 
 AANNAMES: 
-REFERENTIES: 1. Hansen, J.G., Secher, B.J., Jørgensen, LN. &amp; Welling, B. 1994. Drempelwaarde voor de bestrijding van
-Septoria spp. in wintertarwe op basis van neerslag en groeistadium. Plantenziektekunde
+REFERENTIES: 1. Hansen, J.G., Secher, B.J., Jørgensen, LN. &amp; Welling, B. 1994. Drempelwaarde voor de bestrijding van Septoria spp. in wintertarwe op basis van neerslag en groeistadium. Plantenziektekunde
 43, 183-189.
 2. Secher, B.J., Jørgensen, L.N, Murali N.S. &amp; Boll P.S. (1995). Veldvalidatie van een
-Decision Support System for Control of Pests and Diseases in Cereals in Denmark.
-Pesticide Science, 45, 195-199. 3. Henriksen. K.E.; Jærgensen, L.N. &amp; Nielsen, G.C.(2000) PC-Plant Protection - a tool to reduce fungicide input in winter wheat, winter barley and spring barley in Denmark.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beslissings Ondersteunend Systeem voor de bestrijding van plagen en ziekten in granen in Denemarken.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Pesticide Science, 45, 195-199. 3. Henriksen. K.E.; Jærgensen, L.N. &amp; Nielsen, G.C.(2000) PC-Plant Protection - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>een middel om de fungicideninzet in wintertarwe, wintergerst en zomergerst in Denemarken te verminderen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 Conferentie over gewasbescherming in Brighton. Ziekten en plagen. 835-840.
-4. Jørgensen, L.N. &amp; Henriksen, K E. (2002) Control of diseases in different winter wheat varieties using thresholds and appropriate dosages. Petria vol 12 (1/2) 87-94.
-5. Hagelskjær, L.&amp; Jørgensen, LN, 2003 A web-based decision support system for integrated management of diesases and pest s in cereals. EPPO Bulletin 33, 467-471.
-6. Jørgensen, LN; Matzen, M, Nielsen, GC, Jalli, M; Ronis; Djule, A; Anderson, B; Ficke, A., Djule, A (2020) Validation of risk models for control of leaf blotch diseases in wheat in the Nordic and Baltic countries European Journal of Plante Pathology,. https://doi.org/10.1007/si 0658-020-02025-6.
+4. Jørgensen, L.N. &amp; Henriksen, K E. (2002) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bestrijding van ziekten in verschillende wintertarwerassen met behulp van drempels en passende doseringen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Petria vol 12 (1/2) 87-94.
+5. Hagelskjær, L.&amp; Jørgensen, LN, 2003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Een webgebaseerd beslissingsondersteunend systeem voor geïntegreerd beheer van ziekten en plagen in granen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EPPO Bulletin 33, 467-471.
+6. Jørgensen, LN; Matzen, M, Nielsen, GC, Jalli, M; Ronis; Djule, A; Anderson, B; Ficke, A., Djule, A (2020) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Validaties van risicomodellen voor de bestreiding van bladvelkkenziekten in graan in de Noorse en Baltische landen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. European Journal of Plante Pathology,. https://doi.org/10.1007/si 0658-020-02025-6.
 7. Jørgensen, LN; Matzen, N, Heick, T M, Madsen, HP; Kristjansen, H S; Kirkegaard, S; Almskou-Dahlgaard, A; Kristoffersen, R (2020). Bestrijdingsstrategieën in verschillende cultivars. Toegepaste gewasbescherming 2019.DCA rapport, 167, 58-71. https://dcapub.au.dk/djfpublikation/index.asp?action=show&amp;id=1325</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Systemet er udviklet af Aarhus Universitet og SEGES og dækker de vigtigste sygdomme og ska-dedyr i kornafgrøder.
@@ -1788,6 +2290,23 @@
 </t>
   </si>
   <si>
+    <t>Le système a été développé par l'Université d'Aarhus et le SEGES et couvre les principales maladies et parasites des cultures céréalières. Les modèles ont été développés pour des conseils liés aux maladies des feuilles et des tiges des céréales, y compris le blé d'hiver, orge de printemps, orge d'hiver, avoine de printemps, triticale d'hiver et seigle d'hiver. Le système comprend également des modèles pour la lutte contre les ravageurs des céréales. Les modèles nécessitent des informations issues du terrain, généralement dans la période allant du stade BBCH 30-31 au stade BBCH 65-71 (évaluations de la fréquence des plantes attaquées) et, pour certaines maladies, des précipitations sont également nécessaires (jours avec plus de 1 mm de pluie). Avant d'obtenir des informations sur la nécessité des traitements - informations sur la culture, la sensibilité des cultivars et le stade de développement (BBCH) sont nécessaires. Les producteurs doivent contrôler les cultures à intervalles hebdomadaires ou, au minimum, suivre le risque en fonction des précipitations ou des données de surveillance régionales pour l'évaluation des risques. Dans le système danois, les fongicides et les doses sont recommandés. Dans le système IPM-Decisions, seule une recommandation de traiter ou de ne pas traiter est donnée. Les modèles ont été validés au Danemark et ont également été testés dans les pays baltes et les pays nordiques. On s'attend à ce qu'il soit valable dans la partie nord de l'Europe.
+SOURCE : 
+HYPOTHÈSES : 
+REFERENCE: 1. Hansen, J.G., Secher, B.J., Jørgensen, LN. &amp; Welling, B. 1994. Threshold for control of
+Septoria spp. in winter wheat based on precipitation and growth stage. Plant Pathology
+43, 183-189.
+2. Secher, B.J., Jørgensen, L.N, Murali N.S. &amp; Boll P.S. (1995). Field Validation of a
+Decision Support System for Control of Pests and Diseases in Cereals in Denmark.
+Pesticide Science, 45, 195-199.
+3. Henriksen. K.E.; Jærgensen, L.N. &amp; Nielsen, G.C.(2000) PC-Plant Protection - a tool to reduce fungicide input in winter wheat, winter barley and spring barley in Denmark.
+Brighton Crop Protection Conference. Pest and diseases. 835-840.
+4. Jørgensen, L.N. &amp; Henriksen, K E. (2002) Control of diseases in different winter wheat varieties using thresholds and appropriate dosages. Petria vol 12 (1/2) 87-94
+5. Hagelskjær, L.&amp; Jørgensen, LN, 2003 A web-based decision support system for integrated management of diesases and pest s in cereals. EPPO Bulletin 33, 467-471.
+6. Jørgensen, LN; Matzen, M, Nielsen, GC, Jalli, M; Ronis; Djule, A; Anderson, B; Ficke, A., Djule, A (2020) Validation of risk models for control of leaf blotch diseases in wheat in the Nordic and Baltic countries European Journal of Plante Pathology,. https://doi.org/10.1007/si 0658-020-02025-6
+7. Jørgensen, LN; Matzen, N, Heick, T M, Madsen, HP; Kristjansen, H S; Kirkegaard, S; Almskou-Dahlgaard, A; Kristoffersen, R (2020). Control strategies in different cultivars. Applied Crop Protection 2019.DCA rapport, 167, 58-71. https://dcapub.au.dk/djfpublikation/index.asp?action=show&amp;id=1325</t>
+  </si>
+  <si>
     <t>Il sistema è stato sviluppato dall'Università di Aarhus e da SEGES e copre le principali malattie e parassiti delle colture cerealicole.
 I modelli sono stati sviluppati per le indicazioni relative alle malattie delle foglie e del fusto dei cereali, tra cui
 grano invernale, orzo primaverile, orzo invernale, avena primaverile, triticale invernale e segale invernale.
@@ -1819,7 +2338,7 @@
     <t>Growth stage</t>
   </si>
   <si>
-    <t>Wachstumsstadium</t>
+    <t>Entwicklungsstadium</t>
   </si>
   <si>
     <t>Razvojna faza (BBCH)</t>
@@ -1840,6 +2359,9 @@
     <t>Utviklingsstadium</t>
   </si>
   <si>
+    <t>Stade de développement</t>
+  </si>
+  <si>
     <t>Fase di crescita</t>
   </si>
   <si>
@@ -1870,6 +2392,9 @@
     <t>Angrepsnivå (% infiserte planter). 0=0%, 1=1-5%,2=6-10%,3=11-100%</t>
   </si>
   <si>
+    <t>Sévérité (% de plantes infectées). 0=0%, 1=1-5%,2=6-10%,3=11-100%</t>
+  </si>
+  <si>
     <t>Gravità (% di piante infette). 0=0%; 1= 1-5%; 2= 6-10%; 3= 11-100%</t>
   </si>
   <si>
@@ -1900,6 +2425,9 @@
     <t>Mottakelighet</t>
   </si>
   <si>
+    <t>Sensibilité</t>
+  </si>
+  <si>
     <t>Suscettibilità</t>
   </si>
   <si>
@@ -1922,6 +2450,9 @@
   </si>
   <si>
     <t>CPO modell</t>
+  </si>
+  <si>
+    <t>Modèle CPO</t>
   </si>
   <si>
     <t>Modello CPO</t>
@@ -1989,6 +2520,9 @@
 3 = Behov for behandling</t>
   </si>
   <si>
+    <t>Signification des indications. 0 = Aucun besoin de traitement. 1 = Traitement si d'autres maladies ou ravageurs nécessitent un traitement ou si un traitement contre les mauvaises herbes est nécessaire. 2 = Traitement si d'autres maladies ou ravageurs nécessitent le traitement, si une autre maladie obtient un 2 ou si un traitement contre les mauvaises herbes est nécessaire. 3 = Besoin de traitement</t>
+  </si>
+  <si>
     <t>La controparte semaforica del CPO. 
 0 = Nessuna necessità di trattamento. 
 1 = Trattamento se altre malattie o parassiti rilasciano un trattamento o se è necessario un trattamento contro le erbe infestanti. 
@@ -2020,6 +2554,9 @@
     <t>Η εκτίμηση κινδύνου</t>
   </si>
   <si>
+    <t>Evaluation des risques</t>
+  </si>
+  <si>
     <t>La valutazione del rischio</t>
   </si>
   <si>
@@ -2050,6 +2587,9 @@
     <t xml:space="preserve">Åkeren må sjekkes ukentlig eller minimum som følge av risiko basert på nedbør og regionale overvåkingsdata for risikoevaluering. I det danske systemet anbefales det dose og behandlingsintervall. I IPM Decisions gis det kun anbefaling om å behandle eller ikke behandle.  </t>
   </si>
   <si>
+    <t>Les producteurs doivent contrôler les cultures à intervalles hebdomadaires ou, au minimum, suivre le risque en fonction des précipitations ou des données de surveillance régionales pour l'évaluation du risque. Dans le système danois, les fongicides et les doses sont recommandés. Dans le système IPM-décision, seule une recommandation de traiter ou de ne pas traiter est donnée.</t>
+  </si>
+  <si>
     <t>I coltivatori devono controllare le colture a intervalli settimanali o, come minimo, seguire il rischio sulla base delle precipitazioni o dei dati di monitoraggio regionali per la valutazione del rischio. Nel sistema danese vengono raccomandati fungicidi e dosi. Nel sistema IPM-decision viene fornita solo una raccomandazione di trattare o non trattare.</t>
   </si>
   <si>
@@ -2108,6 +2648,9 @@
   </si>
   <si>
     <t>Behandlingsanbefaling (Behandlings ID)</t>
+  </si>
+  <si>
+    <t>Recommandation de traitement (TreatmentID)</t>
   </si>
   <si>
     <r>
@@ -2147,6 +2690,9 @@
     <t>0 = Ikke behov for behandling.</t>
   </si>
   <si>
+    <t>0 = Pas de traitement.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2188,6 +2734,9 @@
     <t>1 = Behandle hvis andre sjukdommer eller skadedyr utløser en anbefaling om behandling eller hvis det er behov for ugras-behandling.</t>
   </si>
   <si>
+    <t>1 = Traitement si d'autres maladies ou ravageurs nécessitent un traitement ou si un traitement contre les mauvaises herbes est nécessaire.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2227,6 +2776,9 @@
   </si>
   <si>
     <t>2 = Behandle hvis andre sjukdommer eller skadedyr utløser behandling, hvis en annen sjukdom får 2, eller om behandling mot ugras er nødvendig.</t>
+  </si>
+  <si>
+    <t>2 = Traitement si d'autres maladies ou ravageurs nécessite un traitement, si une autre maladie obtient 2, ou si un traitement contre les mauvaises herbes est nécessaire.</t>
   </si>
   <si>
     <r>
@@ -2265,12 +2817,15 @@
   <si>
     <t>3 = Behov for behandling</t>
   </si>
+  <si>
+    <t>3 = Traitement.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2355,6 +2910,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2421,7 +3000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2495,6 +3074,34 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2901,15 +3508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2937,34 +3544,37 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2977,19 +3587,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="88" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="68.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="56.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="45.42578125" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="3" customWidth="1"/>
@@ -3009,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -3027,97 +3637,97 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="408.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C2" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="167.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3125,39 +3735,39 @@
     </row>
     <row r="4" spans="1:16" ht="167.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3165,39 +3775,39 @@
     </row>
     <row r="5" spans="1:16" ht="121.5">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -3205,39 +3815,39 @@
     </row>
     <row r="6" spans="1:16" ht="152.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -3245,39 +3855,39 @@
     </row>
     <row r="7" spans="1:16" ht="121.5">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -3285,39 +3895,39 @@
     </row>
     <row r="8" spans="1:16" ht="121.5">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -3325,39 +3935,39 @@
     </row>
     <row r="9" spans="1:16" ht="152.25">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -3365,39 +3975,39 @@
     </row>
     <row r="10" spans="1:16" ht="121.5">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -3405,79 +4015,79 @@
     </row>
     <row r="11" spans="1:16" ht="137.25">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="152.25">
+    <row r="12" spans="1:16" ht="137.25">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3485,39 +4095,39 @@
     </row>
     <row r="13" spans="1:16" ht="137.25">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3525,39 +4135,39 @@
     </row>
     <row r="14" spans="1:16" ht="137.25">
       <c r="A14" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3565,39 +4175,39 @@
     </row>
     <row r="15" spans="1:16" ht="137.25">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3605,39 +4215,39 @@
     </row>
     <row r="16" spans="1:16" ht="137.25">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -3645,39 +4255,39 @@
     </row>
     <row r="17" spans="1:16" ht="137.25">
       <c r="A17" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -3685,39 +4295,39 @@
     </row>
     <row r="18" spans="1:16" ht="121.5">
       <c r="A18" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -3725,39 +4335,39 @@
     </row>
     <row r="19" spans="1:16" ht="106.5">
       <c r="A19" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -3765,39 +4375,39 @@
     </row>
     <row r="20" spans="1:16" ht="91.5">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3805,39 +4415,39 @@
     </row>
     <row r="21" spans="1:16" ht="91.5">
       <c r="A21" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -3845,39 +4455,39 @@
     </row>
     <row r="22" spans="1:16" ht="60.75">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="5" t="s">
         <v>247</v>
       </c>
+      <c r="G22" s="31" t="s">
+        <v>248</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -3885,60 +4495,60 @@
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="76.5">
       <c r="A23" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="91.5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="76.5">
       <c r="A24" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="5" t="s">
         <v>269</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>270</v>
@@ -3998,7 +4608,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="137.25">
+    <row r="26" spans="1:16" ht="121.5">
       <c r="A26" s="3" t="s">
         <v>285</v>
       </c>
@@ -4017,14 +4627,14 @@
       <c r="F26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>280</v>
+      <c r="G26" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>281</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -4040,39 +4650,39 @@
     </row>
     <row r="27" spans="1:16" ht="91.5">
       <c r="A27" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G27" s="5" t="s">
         <v>294</v>
       </c>
+      <c r="G27" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -4080,39 +4690,39 @@
     </row>
     <row r="28" spans="1:16" ht="91.5">
       <c r="A28" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G28" s="5" t="s">
         <v>294</v>
       </c>
+      <c r="G28" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4120,39 +4730,39 @@
     </row>
     <row r="29" spans="1:16" ht="121.5">
       <c r="A29" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="5" t="s">
         <v>306</v>
       </c>
+      <c r="G29" s="30" t="s">
+        <v>307</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -4160,39 +4770,39 @@
     </row>
     <row r="30" spans="1:16" ht="121.5">
       <c r="A30" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="5" t="s">
         <v>306</v>
       </c>
+      <c r="G30" s="30" t="s">
+        <v>307</v>
+      </c>
       <c r="H30" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -4200,74 +4810,74 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="183">
       <c r="A31" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G31" s="5" t="s">
         <v>318</v>
       </c>
+      <c r="G31" s="31" t="s">
+        <v>319</v>
+      </c>
       <c r="H31" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="229.5">
       <c r="A32" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>329</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -4275,39 +4885,39 @@
     </row>
     <row r="33" spans="1:16" ht="121.5">
       <c r="A33" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -4315,39 +4925,39 @@
     </row>
     <row r="34" spans="1:16" ht="121.5">
       <c r="A34" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -4355,39 +4965,39 @@
     </row>
     <row r="35" spans="1:16" ht="121.5">
       <c r="A35" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -4395,39 +5005,39 @@
     </row>
     <row r="36" spans="1:16" ht="121.5">
       <c r="A36" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -4435,39 +5045,39 @@
     </row>
     <row r="37" spans="1:16" ht="91.5">
       <c r="A37" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -4475,39 +5085,39 @@
     </row>
     <row r="38" spans="1:16" ht="106.5">
       <c r="A38" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -4515,39 +5125,39 @@
     </row>
     <row r="39" spans="1:16" ht="91.5">
       <c r="A39" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -4555,39 +5165,39 @@
     </row>
     <row r="40" spans="1:16" ht="106.5">
       <c r="A40" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -4595,254 +5205,254 @@
     </row>
     <row r="41" spans="1:16" s="4" customFormat="1" ht="409.6">
       <c r="A41" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C41" s="6" t="s">
         <v>409</v>
       </c>
+      <c r="C41" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="D41" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="409.6">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="244.5">
       <c r="A42" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C42" s="3" t="s">
         <v>420</v>
       </c>
+      <c r="C42" s="33" t="s">
+        <v>421</v>
+      </c>
       <c r="D42" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" ht="409.6">
+    <row r="43" spans="1:16" s="4" customFormat="1" ht="396.75">
       <c r="A43" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C43" s="6" t="s">
         <v>431</v>
       </c>
+      <c r="C43" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" ht="103.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C44" s="6" t="s">
         <v>442</v>
       </c>
+      <c r="C44" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="D44" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" ht="409.6">
       <c r="A45" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C45" s="6" t="s">
         <v>453</v>
       </c>
+      <c r="C45" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="D45" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" ht="112.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="C46" s="9" t="s">
+        <v>465</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="76.5">
       <c r="A47" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -4859,22 +5469,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="10"/>
+    <col min="1" max="1" width="93.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="94.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="62.28515625" style="19" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="10"/>
     <col min="8" max="8" width="59.140625" style="11" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" style="15"/>
-    <col min="10" max="16384" width="31.42578125" style="10"/>
+    <col min="10" max="11" width="31.42578125" style="10"/>
+    <col min="12" max="12" width="31.42578125" style="29"/>
+    <col min="13" max="16384" width="31.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4888,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>4</v>
@@ -4906,60 +5518,62 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="408.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C2" s="14" t="s">
         <v>486</v>
       </c>
+      <c r="C2" s="34" t="s">
+        <v>487</v>
+      </c>
       <c r="D2" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="L2" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="M2" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -4967,37 +5581,39 @@
     </row>
     <row r="3" spans="1:16" ht="45.75">
       <c r="A3" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>498</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="27" t="s">
+        <v>505</v>
+      </c>
       <c r="M3" s="10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -5005,37 +5621,39 @@
     </row>
     <row r="4" spans="1:16" ht="137.25">
       <c r="A4" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="27" t="s">
+        <v>516</v>
+      </c>
       <c r="M4" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -5043,37 +5661,39 @@
     </row>
     <row r="5" spans="1:16" ht="30.75">
       <c r="A5" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="27" t="s">
+        <v>527</v>
+      </c>
       <c r="M5" s="10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -5081,37 +5701,39 @@
     </row>
     <row r="6" spans="1:16" ht="30.75">
       <c r="A6" s="10" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="27" t="s">
+        <v>536</v>
+      </c>
       <c r="M6" s="10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -5119,7 +5741,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="13"/>
@@ -5128,44 +5750,46 @@
       <c r="I7" s="23"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="L7" s="27"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="409.6">
       <c r="A8" s="10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="28" t="s">
+        <v>548</v>
+      </c>
       <c r="M8" s="11" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -5173,37 +5797,39 @@
     </row>
     <row r="9" spans="1:16" ht="45.75">
       <c r="A9" s="10" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="27" t="s">
+        <v>558</v>
+      </c>
       <c r="M9" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -5211,37 +5837,39 @@
     </row>
     <row r="10" spans="1:16" ht="409.6">
       <c r="A10" s="10" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="27" t="s">
+        <v>569</v>
+      </c>
       <c r="M10" s="11" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5249,7 +5877,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -5258,44 +5886,46 @@
       <c r="I11" s="23"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="27"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="409.6">
       <c r="A12" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>555</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="L12" s="27" t="s">
+        <v>569</v>
+      </c>
       <c r="M12" s="11" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5303,7 +5933,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -5312,44 +5942,46 @@
       <c r="I13" s="22"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="27"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="409.6">
       <c r="A14" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="L14" s="27" t="s">
+        <v>569</v>
+      </c>
       <c r="M14" s="11" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -5357,7 +5989,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -5366,44 +5998,46 @@
       <c r="I15" s="22"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="27"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="27" t="s">
+        <v>569</v>
+      </c>
       <c r="M16" s="11" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -5411,7 +6045,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="10" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -5420,44 +6054,46 @@
       <c r="I17" s="22"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="27"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="10" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="27" t="s">
+        <v>569</v>
+      </c>
       <c r="M18" s="11" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -5465,7 +6101,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="10" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -5474,14 +6110,14 @@
       <c r="I19" s="22"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="27"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -5490,7 +6126,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="27"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -5498,117 +6134,135 @@
     <row r="21" spans="1:16">
       <c r="G21" s="5"/>
       <c r="I21" s="22" t="s">
-        <v>574</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:16">
       <c r="G22" s="5"/>
       <c r="I22" s="22"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:16">
       <c r="G23" s="5"/>
       <c r="I23" s="22" t="s">
-        <v>574</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:16" ht="60.75">
       <c r="B24" s="17" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>580</v>
+        <v>589</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="30.75">
       <c r="B25" s="18" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>585</v>
+        <v>595</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="137.25">
       <c r="B26" s="18" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>591</v>
+        <v>602</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="183">
       <c r="B27" s="18" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>597</v>
+        <v>609</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="30.75">
       <c r="B28" s="18" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>602</v>
+        <v>615</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/excel_from_translation/dk.seges.xlsx
+++ b/i18n/excel_from_translation/dk.seges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rskgroup.sharepoint.com/sites/IPMDecisions274/Shared Documents/WP2/Translation files/Release-2022-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="11_2CD989CA5F7AE9AD3596C8205691A1F823EC2519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D390BC-7266-4F6C-AD4F-C909737E5DC5}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_2CD989CA5F7AE9AD3596C8205691A1F823EC2519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB035404-6AC3-47AC-AD82-E50B24C5F1E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="615">
   <si>
     <t>KEY</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>OAD SEGES</t>
-  </si>
-  <si>
-    <t>si</t>
   </si>
   <si>
     <t>fi</t>
@@ -1930,9 +1927,6 @@
   </si>
   <si>
     <t>Stima del rischio di septoriosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si </t>
   </si>
   <si>
     <t>dk.seges.1_1.models.CPO.description</t>
@@ -3511,7 +3505,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3587,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3619,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -3637,97 +3631,97 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="408.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="167.25">
       <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3735,39 +3729,39 @@
     </row>
     <row r="4" spans="1:16" ht="167.25">
       <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3775,39 +3769,39 @@
     </row>
     <row r="5" spans="1:16" ht="121.5">
       <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>68</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -3815,39 +3809,39 @@
     </row>
     <row r="6" spans="1:16" ht="152.25">
       <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -3855,39 +3849,39 @@
     </row>
     <row r="7" spans="1:16" ht="121.5">
       <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -3895,39 +3889,39 @@
     </row>
     <row r="8" spans="1:16" ht="121.5">
       <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -3935,39 +3929,39 @@
     </row>
     <row r="9" spans="1:16" ht="152.25">
       <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -3975,39 +3969,39 @@
     </row>
     <row r="10" spans="1:16" ht="121.5">
       <c r="A10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -4015,39 +4009,39 @@
     </row>
     <row r="11" spans="1:16" ht="137.25">
       <c r="A11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>134</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -4055,39 +4049,39 @@
     </row>
     <row r="12" spans="1:16" ht="137.25">
       <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -4095,39 +4089,39 @@
     </row>
     <row r="13" spans="1:16" ht="137.25">
       <c r="A13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -4135,39 +4129,39 @@
     </row>
     <row r="14" spans="1:16" ht="137.25">
       <c r="A14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -4175,39 +4169,39 @@
     </row>
     <row r="15" spans="1:16" ht="137.25">
       <c r="A15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -4215,39 +4209,39 @@
     </row>
     <row r="16" spans="1:16" ht="137.25">
       <c r="A16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -4255,39 +4249,39 @@
     </row>
     <row r="17" spans="1:16" ht="137.25">
       <c r="A17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>200</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -4295,39 +4289,39 @@
     </row>
     <row r="18" spans="1:16" ht="121.5">
       <c r="A18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -4335,39 +4329,39 @@
     </row>
     <row r="19" spans="1:16" ht="106.5">
       <c r="A19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -4375,39 +4369,39 @@
     </row>
     <row r="20" spans="1:16" ht="91.5">
       <c r="A20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -4415,39 +4409,39 @@
     </row>
     <row r="21" spans="1:16" ht="91.5">
       <c r="A21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -4455,39 +4449,39 @@
     </row>
     <row r="22" spans="1:16" ht="60.75">
       <c r="A22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="H22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -4495,74 +4489,74 @@
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="76.5">
       <c r="A23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="76.5">
       <c r="A24" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>272</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>273</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4570,39 +4564,39 @@
     </row>
     <row r="25" spans="1:16" ht="137.25">
       <c r="A25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -4610,39 +4604,39 @@
     </row>
     <row r="26" spans="1:16" ht="121.5">
       <c r="A26" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="H26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -4650,39 +4644,39 @@
     </row>
     <row r="27" spans="1:16" ht="91.5">
       <c r="A27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="H27" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M27" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -4690,39 +4684,39 @@
     </row>
     <row r="28" spans="1:16" ht="91.5">
       <c r="A28" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="H28" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M28" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4730,39 +4724,39 @@
     </row>
     <row r="29" spans="1:16" ht="121.5">
       <c r="A29" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="H29" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="M29" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -4770,39 +4764,39 @@
     </row>
     <row r="30" spans="1:16" ht="121.5">
       <c r="A30" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="H30" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="M30" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -4810,74 +4804,74 @@
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="183">
       <c r="A31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="H31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="229.5">
       <c r="A32" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="31" t="s">
+      <c r="H32" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M32" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -4885,39 +4879,39 @@
     </row>
     <row r="33" spans="1:16" ht="121.5">
       <c r="A33" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>342</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>343</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -4925,39 +4919,39 @@
     </row>
     <row r="34" spans="1:16" ht="121.5">
       <c r="A34" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="M34" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>354</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -4965,39 +4959,39 @@
     </row>
     <row r="35" spans="1:16" ht="121.5">
       <c r="A35" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>365</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -5005,39 +4999,39 @@
     </row>
     <row r="36" spans="1:16" ht="121.5">
       <c r="A36" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>365</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -5045,39 +5039,39 @@
     </row>
     <row r="37" spans="1:16" ht="91.5">
       <c r="A37" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M37" s="25" t="s">
         <v>376</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>377</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -5085,39 +5079,39 @@
     </row>
     <row r="38" spans="1:16" ht="106.5">
       <c r="A38" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M38" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>387</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -5125,39 +5119,39 @@
     </row>
     <row r="39" spans="1:16" ht="91.5">
       <c r="A39" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="M39" s="25" t="s">
         <v>396</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>397</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -5165,39 +5159,39 @@
     </row>
     <row r="40" spans="1:16" ht="106.5">
       <c r="A40" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>407</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -5205,74 +5199,74 @@
     </row>
     <row r="41" spans="1:16" s="4" customFormat="1" ht="409.6">
       <c r="A41" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="244.5">
       <c r="A42" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="D42" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="M42" s="25" t="s">
         <v>428</v>
-      </c>
-      <c r="M42" s="25" t="s">
-        <v>429</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -5280,179 +5274,179 @@
     </row>
     <row r="43" spans="1:16" s="4" customFormat="1" ht="396.75">
       <c r="A43" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" ht="103.5" customHeight="1">
       <c r="A44" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="25" t="s">
         <v>450</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" ht="409.6">
       <c r="A45" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="25" t="s">
         <v>461</v>
-      </c>
-      <c r="M45" s="25" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" ht="112.5" customHeight="1">
       <c r="A46" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="76.5">
       <c r="A47" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="M47" s="25" t="s">
         <v>482</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>483</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -5469,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15"/>
@@ -5500,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>4</v>
@@ -5518,62 +5512,62 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="408.75" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="E2" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="21" t="s">
         <v>491</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -5581,39 +5575,39 @@
     </row>
     <row r="3" spans="1:16" ht="45.75">
       <c r="A3" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="E3" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -5621,39 +5615,39 @@
     </row>
     <row r="4" spans="1:16" ht="137.25">
       <c r="A4" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="H4" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -5661,39 +5655,39 @@
     </row>
     <row r="5" spans="1:16" ht="30.75">
       <c r="A5" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="H5" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>524</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>526</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -5701,39 +5695,39 @@
     </row>
     <row r="6" spans="1:16" ht="30.75">
       <c r="A6" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="22" t="s">
         <v>533</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -5741,7 +5735,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="13"/>
@@ -5757,39 +5751,39 @@
     </row>
     <row r="8" spans="1:16" ht="409.6">
       <c r="A8" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="H8" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="24" t="s">
         <v>545</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>547</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -5797,39 +5791,39 @@
     </row>
     <row r="9" spans="1:16" ht="45.75">
       <c r="A9" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="F9" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="H9" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>557</v>
-      </c>
       <c r="I9" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -5837,39 +5831,39 @@
     </row>
     <row r="10" spans="1:16" ht="409.6">
       <c r="A10" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="H10" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="23" t="s">
         <v>566</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>568</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5877,7 +5871,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
@@ -5893,39 +5887,39 @@
     </row>
     <row r="12" spans="1:16" ht="409.6">
       <c r="A12" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="F12" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="H12" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="I12" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5933,7 +5927,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -5949,39 +5943,39 @@
     </row>
     <row r="14" spans="1:16" ht="409.6">
       <c r="A14" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="F14" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="G14" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="H14" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -5989,7 +5983,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="13"/>
@@ -6005,39 +5999,39 @@
     </row>
     <row r="16" spans="1:16" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="F16" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="H16" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="I16" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -6045,7 +6039,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13"/>
@@ -6061,39 +6055,39 @@
     </row>
     <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="F18" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="I18" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -6101,7 +6095,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -6117,7 +6111,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -6134,7 +6128,7 @@
     <row r="21" spans="1:16">
       <c r="G21" s="5"/>
       <c r="I21" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L21" s="27"/>
     </row>
@@ -6146,123 +6140,123 @@
     <row r="23" spans="1:16">
       <c r="G23" s="5"/>
       <c r="I23" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:16" ht="60.75">
       <c r="B24" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G24" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="H24" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="L24" s="27" t="s">
         <v>588</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="30.75">
       <c r="B25" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="I25" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="H25" s="11" t="s">
+      <c r="L25" s="27" t="s">
         <v>594</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="137.25">
       <c r="B26" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="G26" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="H26" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="I26" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="L26" s="27" t="s">
         <v>601</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="183">
       <c r="B27" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="H27" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="L27" s="27" t="s">
         <v>608</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="30.75">
       <c r="B28" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="I28" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="L28" s="27" t="s">
         <v>614</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -6273,28 +6267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6554,8 +6526,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D5C6BEF-D918-4E30-A7C3-BC3A19C3EA58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1052775-1CBF-4B08-B232-0C325E2B0EBF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6563,5 +6557,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1052775-1CBF-4B08-B232-0C325E2B0EBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D5C6BEF-D918-4E30-A7C3-BC3A19C3EA58}"/>
 </file>
--- a/i18n/excel_from_translation/dk.seges.xlsx
+++ b/i18n/excel_from_translation/dk.seges.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1646" documentId="11_CF90CC75D0B8B9D7EE66F5EE4CC5D748697E94CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266C0F6D-165A-4532-8EB5-46F6FEAEC494}"/>
+  <xr:revisionPtr revIDLastSave="1668" documentId="11_CF90CC75D0B8B9D7EE66F5EE4CC5D748697E94CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6CEEA8F-115C-4797-8012-5CE3A2BB6BFB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1772">
   <si>
     <t>KEY</t>
   </si>
@@ -5463,7 +5463,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DE ZIEKTE: Bladvlekkenziekten van tarwe kunnen worden veroorzaakt door Septoria tritici blotch (Zymoseptoria tritici) en Septoria nodorum blotch (Stagonospora nodorium), die beide worden bevorderd door natte omstandigheden.  DE BESLISSING: Fungicidenbehandelingen moeten mogelijk een of twee keer worden toegepast tussen de stengelverlenging (GS 32) en de bloei (GS 69), voornamelijk om de bovenste bladeren te beschermen tegen aantasting door Septoria-ziekten.  HET MODEL: Het CPO Septoria-model schat het risico van septoria tritici blotch-infecties in wintertarwe. Weersgegevens van GS 32 tot GS 69 worden gebruikt.  Bespuiten wordt aanbevolen na minimaal 4 dagen met regen (&gt; 1 mm) in vatbare cultivars, waarbij de dagen tussen GS 32 en GS 69 worden geteld.  Bij resistente cultivars wordt het risico op aantasting verondersteld na 5 dagen met regen (&gt;1mm) tussen GS 37 en GS 69. Het tellen van dagen met regen gaat maximaal 30 dagen terug.  Bij het uitvoeren van het Septoria-model wordt het risico op opbrengstverlies door andere ziekten dan Septoria buiten beschouwing gelaten.  Als er geen actie wordt aanbevolen, wordt geadviseerd om het gewas na ongeveer een week opnieuw te bezoeken om het risico opnieuw te evalueren. </t>
+    <t>DE ZIEKTE: Bladvlekkenziekten van tarwe kunnen worden veroorzaakt door Septoria tritici blotch (Zymoseptoria tritici) en Septoria nodorum blotch (Stagonospora nodorium), die beide worden bevorderd door natte omstandigheden.  DE BESLISSING: Fungicidenbehandelingen moeten mogelijk een of twee keer worden toegepast tussen de stengelverlenging (GS 32) en de bloei (GS 69), voornamelijk om de bovenste bladeren te beschermen tegen aantasting door Septoria-ziekten.  HET MODEL: Het CPO Septoria-model schat het risico van septoria tritici blotch-infecties in wintertarwe. Weersgegevens van GS 32 tot GS 69 worden gebruikt.  Bespuiten wordt aanbevolen na minimaal 4 dagen met regen (&gt; 1 mm) in vatbare cultivars, waarbij de dagen tussen GS 32 en GS 69 worden geteld.  Bij resistente cultivars wordt het risico op aantasting verondersteld na 5 dagen met regen (&gt;1mm) tussen GS 37 en GS 69. Het tellen van dagen met regen gaat maximaal 30 dagen terug.  Bij het uitvoeren van het Septoria-model wordt het risico op opbrengstverlies door andere ziekten dan Septoria buiten beschouwing gelaten.  Als er geen actie wordt aanbevolen, wordt geadviseerd om het gewas na ongeveer een week opnieuw te bezoeken om het risico opnieuw te evalueren. DE PARAMETERS Voor nauwkeurige risicovoorspellingen is het essentieel om op de knop 'Edit parameters' (parameters bewerken) te klikken en informatie in te voeren over de gevoeligheid van de cultivar voor Septoria-ziekten. Er worden slechts twee categorieën gebruikt: vatbaar en resistent. Als een cultivar wordt gecategoriseerd als gedeeltelijk resistent, raden we aan deze als vatbaar te beschouwen.  Voer de specifieke groeistadia in op het moment dat de gewasmonitoring en weergegevens worden ingevoerd.  Voer informatie in over de incidentie van aangetaste planten door Septoria ziekten gebaseerd op het scouten van het gewas op het derde blad naar beneden vanaf de top. Als meer dan 10% van het 3e blad (vlagblad -2) is aangetast en er geen eerdere behandelingen tegen Septoria zijn toegepast, wordt aanbevolen om te spuiten, zelfs als er minder dan 4 dagen met neerslag zijn geteld.  Als u op 'Opslaan' klikt, blijven de ingevoerde waarnemingen behouden en wordt het risico bijgewerkt.  Het model past zich niet automatisch aan voor het effect van eerdere bespuitingen met fungiciden.  Als er de afgelopen 10 dagen een fungicide is toegepast dat effectief is tegen septoria, kan het risico als laag worden geïnterpreteerd. AANNAMES: Septoria tritici blotch is aanwezig in het gewas en perioden met een hoge luchtvochtigheid creëren risico op een schadelijke epidemie. BRON: Gemaakt door de Universiteit van Aarhus en SEGES en in 2000 uitgebracht in Denemarken. Het hele CPO-model is eerder getest in de Scandinavische en Baltische landen, maar het specifieke Septoria-onderdeel is mogelijk niet getest.   Het model kan van nut zijn in andere landen in Noord-Europa.</t>
   </si>
   <si>
     <t>SKADEVOLDER: Bladpletsygdomme i hvede kan være forårsaget af Septoria tritici blotch (Zymoseptoria tritici) og Staganospora nodorum blotch (Parastagonospora nodorum), som begge er begunstiget af våde forhold. 
@@ -5515,7 +5515,7 @@
     <t>dk.seges.1_1.models.CPO_TRZAX_SEPTTR.execution.input_schema.properties.CropId.title</t>
   </si>
   <si>
-    <t xml:space="preserve">DE PARAMETERS Voor nauwkeurige risicovoorspellingen is het essentieel om op de knop 'Edit parameters' (parameters bewerken) te klikken en informatie in te voeren over de gevoeligheid van de cultivar voor Septoria-ziekten. Er worden slechts twee categorieën gebruikt: vatbaar en resistent. Als een cultivar wordt gecategoriseerd als gedeeltelijk resistent, raden we aan deze als vatbaar te beschouwen.  Voer de specifieke groeistadia in op het moment dat de gewasmonitoring en weergegevens worden ingevoerd.  Voer informatie in over de incidentie van aangetaste planten door Septoria ziekten gebaseerd op het scouten van het gewas op het derde blad naar beneden vanaf de top. Als meer dan 10% van het 3e blad (vlagblad -2) is aangetast en er geen eerdere behandelingen tegen Septoria zijn toegepast, wordt aanbevolen om te spuiten, zelfs als er minder dan 4 dagen met neerslag zijn geteld.  Als u op 'Opslaan' klikt, blijven de ingevoerde waarnemingen behouden en wordt het risico bijgewerkt.  Het model past zich niet automatisch aan voor het effect van eerdere bespuitingen met fungiciden.  Als er de afgelopen 10 dagen een fungicide is toegepast dat effectief is tegen septoria, kan het risico als laag worden geïnterpreteerd. </t>
+    <t>Tarwe (Zomertarwe)</t>
   </si>
   <si>
     <t>Σιτάρι</t>
@@ -5527,7 +5527,7 @@
     <t>dk.seges.1_1.models.CPO_TRZAX_SEPTTR.execution.input_schema.properties.GrowthStage.title</t>
   </si>
   <si>
-    <t>AANNAMES: Septoria tritici blotch is aanwezig in het gewas en perioden met een hoge luchtvochtigheid creëren risico op een schadelijke epidemie.</t>
+    <t>Actueel ontwikkelingsstadium (BBCH-Code)</t>
   </si>
   <si>
     <t>Στάδιο ανάπτυξης (BBCH)</t>
@@ -5536,7 +5536,7 @@
     <t>dk.seges.1_1.models.CPO_TRZAX_SEPTTR.execution.input_schema.properties.Severity.title</t>
   </si>
   <si>
-    <t>BRON: Gemaakt door de Universiteit van Aarhus en SEGES en in 2000 uitgebracht in Denemarken. Het hele CPO-model is eerder getest in de Scandinavische en Baltische landen, maar het specifieke Septoria-onderdeel is mogelijk niet getest.   Het model kan van nut zijn in andere landen in Noord-Europa.</t>
+    <t>Frequentie van aantasting (% aangetaste planten)</t>
   </si>
   <si>
     <t>Έκταση ασθένειας (% φυτών)</t>
@@ -5615,6 +5615,9 @@
   </si>
   <si>
     <t>dk.seges.1_1.models.CPO_TRZAX_SEPTTR.output.result_parameters.TREATMENT_ID.description</t>
+  </si>
+  <si>
+    <t>Het stoplichtmodel van CPO. 0 = Geen behandeling nodig. 1 = Behandelen indien ander probleem behandeling behoeft. 2 = Behandelen indien een ander probleem behandelcode 2 laat zien. 3 = Behandeling nodig.</t>
   </si>
   <si>
     <t>CPO šviesoforo atitikmuo. 0 = purškimo nereikia. 1 = Purkšti, jei reikia purkšti dėl kitų ligųs. 2 = Purkšti, jei reikia purkšti dėl kitų problemų Id = 2
@@ -6622,17 +6625,17 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="108.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="82.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="89.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="67.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="5" customWidth="1"/>
@@ -6741,7 +6744,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="321">
+    <row r="3" spans="1:17" ht="275.25">
       <c r="A3" s="5" t="s">
         <v>1630</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="275.25">
+    <row r="4" spans="1:17" ht="409.6">
       <c r="A4" s="5" t="s">
         <v>1634</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="76.5">
+    <row r="5" spans="1:17" ht="381.75">
       <c r="A5" s="5" t="s">
         <v>1637</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="336">
+    <row r="9" spans="1:17" ht="409.6">
       <c r="A9" s="5" t="s">
         <v>1664</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>651</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1273</v>
+        <v>1665</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>654</v>
@@ -6995,10 +6998,10 @@
         <v>658</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>996</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="10" spans="1:17" ht="60.75">
       <c r="A10" s="5" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>662</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="11" spans="1:17" ht="76.5">
       <c r="A11" s="5" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>431</v>
@@ -7083,7 +7086,7 @@
         <v>679</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>680</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="12" spans="1:17" ht="76.5">
       <c r="A12" s="5" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>444</v>
@@ -7115,7 +7118,7 @@
         <v>449</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>1006</v>
@@ -7127,7 +7130,7 @@
         <v>686</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>454</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="13" spans="1:17" ht="45.75">
       <c r="A13" s="5" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>456</v>
@@ -7159,7 +7162,7 @@
         <v>689</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>460</v>
@@ -7171,7 +7174,7 @@
         <v>464</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>466</v>
@@ -7182,7 +7185,7 @@
     </row>
     <row r="14" spans="1:17" ht="106.5">
       <c r="A14" s="5" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>468</v>
@@ -7203,7 +7206,7 @@
         <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>696</v>
@@ -7215,7 +7218,7 @@
         <v>697</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>698</v>
@@ -7226,43 +7229,43 @@
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A15" s="4" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>1539</v>
@@ -7270,43 +7273,43 @@
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A16" s="4" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>722</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>1027</v>
@@ -7314,43 +7317,43 @@
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A17" s="4" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>1555</v>
@@ -7358,43 +7361,43 @@
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A18" s="4" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>1050</v>
@@ -7402,43 +7405,43 @@
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A19" s="4" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>1580</v>
@@ -7446,43 +7449,43 @@
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" ht="409.6">
       <c r="A20" s="4" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>1593</v>
@@ -7490,57 +7493,57 @@
     </row>
     <row r="21" spans="1:17" ht="152.25">
       <c r="A21" s="5" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="45.75">
       <c r="A22" s="5" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>791</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -7554,7 +7557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9511,7 +9514,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -14735,8 +14738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C9" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -14746,7 +14749,7 @@
     <col min="2" max="2" width="97.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="111.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="63.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="70.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" style="5" customWidth="1"/>
@@ -15886,15 +15889,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
@@ -15907,14 +15901,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6901736D-2935-41F5-B55F-927C3C000B43}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B319B5EC-5999-4672-B9D9-EE534F163FBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3652E2D3-E47A-41F2-85D2-CF72F896B5F7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3652E2D3-E47A-41F2-85D2-CF72F896B5F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B319B5EC-5999-4672-B9D9-EE534F163FBC}"/>
 </file>